--- a/20 開発資料/03.詳細設計/プロセス概要(07_検索 講演会基本情報一覧).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(07_検索 講演会基本情報一覧).xlsx
@@ -13,6 +13,7 @@
     <sheet name="IPO_4" sheetId="1" r:id="rId4"/>
     <sheet name="IPO_5" sheetId="5" r:id="rId5"/>
     <sheet name="IPO_6" sheetId="8" r:id="rId6"/>
+    <sheet name="IPO_7" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">IPO_1!$1:$9</definedName>
@@ -21,13 +22,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">IPO_4!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">IPO_5!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">IPO_6!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">IPO_7!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -985,6 +987,185 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BtnPrint1_Click</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクション名</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>印刷ボタン押下時処理</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッション変数に下記内容をセットして、プレビュー画面へ遷移する。</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抽出条件に指定された各項目</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BYL企画担当者BU</t>
+    <rPh sb="3" eb="5">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BYL企画担当者エリア</t>
+    <rPh sb="3" eb="5">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抽出条件に従って生成されたSQL</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BYL企画担当者(ローマ字)</t>
+    <rPh sb="3" eb="5">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BYL手配担当者(ローマ字)</t>
+    <rPh sb="3" eb="5">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講演会番号</t>
+    <rPh sb="0" eb="3">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実施日FROM</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実施日TO</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOP担当者</t>
+    <rPh sb="3" eb="6">
+      <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1349,58 +1530,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,6 +1575,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1454,6 +1610,31 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1920,6 +2101,80 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート : 表示 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="1771650"/>
+          <a:ext cx="1562100" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>プレビュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -2219,196 +2474,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41555</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2420,66 +2675,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -4052,6 +4307,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4068,16 +4333,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4102,196 +4357,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41555</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -4303,66 +4558,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -5925,6 +6180,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -5941,16 +6206,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -5975,196 +6230,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41555</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6176,66 +6431,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -7818,12 +8073,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -7834,16 +8083,22 @@
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7868,196 +8123,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41555</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8069,66 +8324,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -9760,6 +10015,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -9776,16 +10041,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -9811,196 +10066,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41554</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -10012,66 +10267,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -11696,6 +11951,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -11712,16 +11977,6 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -11738,7 +11993,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AQ3"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -11747,196 +12002,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
         <v>41554</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -11948,66 +12203,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -13596,6 +13851,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -13612,16 +13877,1934 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="15" max="15" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="39">
+        <v>41604</v>
+      </c>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="19"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="10"/>
+    </row>
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="3"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="3"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="3"/>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="O13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="3"/>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4"/>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="3"/>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="3"/>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="3"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4"/>
+      <c r="N17" s="11"/>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="3"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4"/>
+      <c r="N18" s="11"/>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="3"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="3"/>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="O20" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="3"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="4"/>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="3"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="11"/>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="3"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="3"/>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="3"/>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="3"/>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="3"/>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="3"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="3"/>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="3"/>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="3"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="3"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="3"/>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="3"/>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="4"/>
+      <c r="O34" s="12"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="3"/>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="3"/>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="3"/>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="3"/>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
